--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1500.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1500.xlsx
@@ -354,7 +354,7 @@
         <v>2.002641023995257</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.963893296867171</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1500.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1500.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.275081981766802</v>
+        <v>1.475888013839722</v>
       </c>
       <c r="B1">
-        <v>2.002641023995257</v>
+        <v>2.992345094680786</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.216126918792725</v>
       </c>
       <c r="D1">
-        <v>1.963893296867171</v>
+        <v>0.6646848320960999</v>
       </c>
       <c r="E1">
-        <v>0.900533876374498</v>
+        <v>0.7860522270202637</v>
       </c>
     </row>
   </sheetData>
